--- a/JupyterNotebooks/AveragedIntensities-SRP/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/Gamma2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9764553314121037</v>
+        <v>0.9731772334293948</v>
       </c>
       <c r="D3">
-        <v>0.8066498559077809</v>
+        <v>0.8101512968299712</v>
       </c>
       <c r="E3">
-        <v>1.076296829971181</v>
+        <v>1.077168587896254</v>
       </c>
       <c r="F3">
-        <v>0.9764553314121037</v>
+        <v>0.9731772334293948</v>
       </c>
       <c r="G3">
-        <v>0.8578602305475505</v>
+        <v>0.8578386167146974</v>
       </c>
       <c r="H3">
-        <v>1.262017291066282</v>
+        <v>1.266469740634006</v>
       </c>
       <c r="I3">
-        <v>1.05271613832853</v>
+        <v>1.052348703170029</v>
       </c>
       <c r="J3">
-        <v>0.8066498559077809</v>
+        <v>0.8101512968299712</v>
       </c>
       <c r="K3">
-        <v>0.9764553314121037</v>
+        <v>0.9731772334293948</v>
       </c>
       <c r="L3">
-        <v>0.9414733429394813</v>
+        <v>1.077168587896254</v>
       </c>
       <c r="M3">
-        <v>0.9414733429394813</v>
+        <v>0.9436599423631125</v>
       </c>
       <c r="N3">
-        <v>0.9136023054755044</v>
+        <v>0.9436599423631125</v>
       </c>
       <c r="O3">
-        <v>0.9531340057636887</v>
+        <v>0.9150528338136409</v>
       </c>
       <c r="P3">
-        <v>0.9531340057636887</v>
+        <v>0.9534990393852065</v>
       </c>
       <c r="Q3">
-        <v>0.9589643371757924</v>
+        <v>0.9534990393852065</v>
       </c>
       <c r="R3">
-        <v>0.9589643371757924</v>
+        <v>0.9584185878962536</v>
       </c>
       <c r="S3">
-        <v>1.005332612872238</v>
+        <v>0.9584185878962536</v>
+      </c>
+      <c r="T3">
+        <v>1.006192363112392</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009444840121491</v>
+        <v>1.008363564545268</v>
       </c>
       <c r="D4">
-        <v>0.9665994324930963</v>
+        <v>0.9671685740387875</v>
       </c>
       <c r="E4">
-        <v>0.9980067251222422</v>
+        <v>0.9986341983137771</v>
       </c>
       <c r="F4">
-        <v>1.009444840121491</v>
+        <v>1.008363564545268</v>
       </c>
       <c r="G4">
-        <v>0.9774152156387859</v>
+        <v>0.9773359313944642</v>
       </c>
       <c r="H4">
-        <v>1.002155350535974</v>
+        <v>1.003080432085543</v>
       </c>
       <c r="I4">
-        <v>1.001787173412981</v>
+        <v>1.001558435594122</v>
       </c>
       <c r="J4">
-        <v>0.9665994324930963</v>
+        <v>0.9671685740387875</v>
       </c>
       <c r="K4">
-        <v>1.009444840121491</v>
+        <v>1.008363564545268</v>
       </c>
       <c r="L4">
-        <v>0.9823030788076692</v>
+        <v>0.9986341983137771</v>
       </c>
       <c r="M4">
-        <v>0.9823030788076692</v>
+        <v>0.9829013861762823</v>
       </c>
       <c r="N4">
-        <v>0.980673791084708</v>
+        <v>0.9829013861762823</v>
       </c>
       <c r="O4">
-        <v>0.9913503325789433</v>
+        <v>0.981046234582343</v>
       </c>
       <c r="P4">
-        <v>0.9913503325789433</v>
+        <v>0.9913887789659442</v>
       </c>
       <c r="Q4">
-        <v>0.9958739594645805</v>
+        <v>0.9913887789659442</v>
       </c>
       <c r="R4">
-        <v>0.9958739594645805</v>
+        <v>0.9956324753607753</v>
       </c>
       <c r="S4">
-        <v>0.9925681228874285</v>
+        <v>0.9956324753607753</v>
+      </c>
+      <c r="T4">
+        <v>0.9926901893286603</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024594276859379</v>
+        <v>1.023469364379357</v>
       </c>
       <c r="D5">
-        <v>0.943195597504339</v>
+        <v>0.9436377789349696</v>
       </c>
       <c r="E5">
-        <v>0.9998160823045482</v>
+        <v>1.000695745163666</v>
       </c>
       <c r="F5">
-        <v>1.024594276859379</v>
+        <v>1.023469364379357</v>
       </c>
       <c r="G5">
-        <v>0.9657019197418479</v>
+        <v>0.9655219032205984</v>
       </c>
       <c r="H5">
-        <v>1.006412446476209</v>
+        <v>1.007429030350542</v>
       </c>
       <c r="I5">
-        <v>1.007384609498003</v>
+        <v>1.007177195907384</v>
       </c>
       <c r="J5">
-        <v>0.943195597504339</v>
+        <v>0.9436377789349696</v>
       </c>
       <c r="K5">
-        <v>1.024594276859379</v>
+        <v>1.023469364379357</v>
       </c>
       <c r="L5">
-        <v>0.9715058399044436</v>
+        <v>1.000695745163666</v>
       </c>
       <c r="M5">
-        <v>0.9715058399044436</v>
+        <v>0.9721667620493177</v>
       </c>
       <c r="N5">
-        <v>0.969571199850245</v>
+        <v>0.9721667620493177</v>
       </c>
       <c r="O5">
-        <v>0.9892019855560887</v>
+        <v>0.9699518091064112</v>
       </c>
       <c r="P5">
-        <v>0.9892019855560887</v>
+        <v>0.9892676294926641</v>
       </c>
       <c r="Q5">
-        <v>0.9980500583819114</v>
+        <v>0.9892676294926641</v>
       </c>
       <c r="R5">
-        <v>0.9980500583819114</v>
+        <v>0.9978180632143374</v>
       </c>
       <c r="S5">
-        <v>0.9911841553973878</v>
+        <v>0.9978180632143374</v>
+      </c>
+      <c r="T5">
+        <v>0.9913218363260862</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9906747683936118</v>
+        <v>0.9901352758028489</v>
       </c>
       <c r="D6">
-        <v>0.9934238602425274</v>
+        <v>0.9935058341818552</v>
       </c>
       <c r="E6">
-        <v>0.9971314856683616</v>
+        <v>0.9974273646219645</v>
       </c>
       <c r="F6">
-        <v>0.9906747683936118</v>
+        <v>0.9901352758028489</v>
       </c>
       <c r="G6">
-        <v>0.9896120609020395</v>
+        <v>0.9896182599373986</v>
       </c>
       <c r="H6">
-        <v>1.002984315404108</v>
+        <v>1.00343188788881</v>
       </c>
       <c r="I6">
-        <v>0.9959255459470567</v>
+        <v>0.9958916829036506</v>
       </c>
       <c r="J6">
-        <v>0.9934238602425274</v>
+        <v>0.9935058341818552</v>
       </c>
       <c r="K6">
-        <v>0.9906747683936118</v>
+        <v>0.9901352758028489</v>
       </c>
       <c r="L6">
-        <v>0.9952776729554444</v>
+        <v>0.9974273646219645</v>
       </c>
       <c r="M6">
-        <v>0.9952776729554444</v>
+        <v>0.9954665994019098</v>
       </c>
       <c r="N6">
-        <v>0.9933891356043095</v>
+        <v>0.9954665994019098</v>
       </c>
       <c r="O6">
-        <v>0.9937433714348335</v>
+        <v>0.9935171529137395</v>
       </c>
       <c r="P6">
-        <v>0.9937433714348335</v>
+        <v>0.9936894915355562</v>
       </c>
       <c r="Q6">
-        <v>0.9929762206745281</v>
+        <v>0.9936894915355561</v>
       </c>
       <c r="R6">
-        <v>0.9929762206745281</v>
+        <v>0.9928009376023793</v>
       </c>
       <c r="S6">
-        <v>0.9949586727596175</v>
+        <v>0.9928009376023793</v>
+      </c>
+      <c r="T6">
+        <v>0.995001717556088</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9949238975122726</v>
+        <v>1.121342149089212</v>
       </c>
       <c r="D7">
-        <v>0.994916963840292</v>
+        <v>1.094052022585041</v>
       </c>
       <c r="E7">
-        <v>0.9943649668699155</v>
+        <v>0.8937743216543073</v>
       </c>
       <c r="F7">
-        <v>0.9949238975122726</v>
+        <v>1.121342149089212</v>
       </c>
       <c r="G7">
-        <v>0.991673476423538</v>
+        <v>1.092233990538679</v>
       </c>
       <c r="H7">
-        <v>0.9951561430000584</v>
+        <v>0.6889417584802076</v>
       </c>
       <c r="I7">
-        <v>0.99493714788777</v>
+        <v>0.9523938678260909</v>
       </c>
       <c r="J7">
-        <v>0.994916963840292</v>
+        <v>1.094052022585041</v>
       </c>
       <c r="K7">
-        <v>0.9949238975122726</v>
+        <v>1.121342149089212</v>
       </c>
       <c r="L7">
-        <v>0.9946409653551038</v>
+        <v>0.8937743216543073</v>
       </c>
       <c r="M7">
-        <v>0.9946409653551038</v>
+        <v>0.9939131721196739</v>
       </c>
       <c r="N7">
-        <v>0.9936518023779152</v>
+        <v>0.9939131721196739</v>
       </c>
       <c r="O7">
-        <v>0.99473527607416</v>
+        <v>1.026686778259342</v>
       </c>
       <c r="P7">
-        <v>0.99473527607416</v>
+        <v>1.036389497776186</v>
       </c>
       <c r="Q7">
-        <v>0.9947824314336882</v>
+        <v>1.036389497776186</v>
       </c>
       <c r="R7">
-        <v>0.9947824314336882</v>
+        <v>1.057627660604443</v>
       </c>
       <c r="S7">
-        <v>0.9943287659223077</v>
+        <v>1.057627660604443</v>
+      </c>
+      <c r="T7">
+        <v>0.9737896850289228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.902126487668975</v>
+      </c>
+      <c r="D8">
+        <v>1.070736575035974</v>
+      </c>
+      <c r="E8">
+        <v>1.014757552172515</v>
+      </c>
+      <c r="F8">
+        <v>0.902126487668975</v>
+      </c>
+      <c r="G8">
+        <v>1.024146020964109</v>
+      </c>
+      <c r="H8">
+        <v>1.035252338869765</v>
+      </c>
+      <c r="I8">
+        <v>0.9774295127375004</v>
+      </c>
+      <c r="J8">
+        <v>1.070736575035974</v>
+      </c>
+      <c r="K8">
+        <v>0.902126487668975</v>
+      </c>
+      <c r="L8">
+        <v>1.014757552172515</v>
+      </c>
+      <c r="M8">
+        <v>1.042747063604244</v>
+      </c>
+      <c r="N8">
+        <v>1.042747063604244</v>
+      </c>
+      <c r="O8">
+        <v>1.036546716057533</v>
+      </c>
+      <c r="P8">
+        <v>0.9958735382924879</v>
+      </c>
+      <c r="Q8">
+        <v>0.995873538292488</v>
+      </c>
+      <c r="R8">
+        <v>0.9724367756366098</v>
+      </c>
+      <c r="S8">
+        <v>0.9724367756366098</v>
+      </c>
+      <c r="T8">
+        <v>1.00407474790814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.84</v>
+      </c>
+      <c r="D9">
+        <v>0.44</v>
+      </c>
+      <c r="E9">
+        <v>1.27</v>
+      </c>
+      <c r="F9">
+        <v>0.84</v>
+      </c>
+      <c r="G9">
+        <v>0.68</v>
+      </c>
+      <c r="H9">
+        <v>1.52</v>
+      </c>
+      <c r="I9">
+        <v>1.15</v>
+      </c>
+      <c r="J9">
+        <v>0.44</v>
+      </c>
+      <c r="K9">
+        <v>0.84</v>
+      </c>
+      <c r="L9">
+        <v>1.27</v>
+      </c>
+      <c r="M9">
+        <v>0.855</v>
+      </c>
+      <c r="N9">
+        <v>0.855</v>
+      </c>
+      <c r="O9">
+        <v>0.7966666666666667</v>
+      </c>
+      <c r="P9">
+        <v>0.85</v>
+      </c>
+      <c r="Q9">
+        <v>0.85</v>
+      </c>
+      <c r="R9">
+        <v>0.8474999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.8474999999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.9833333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.98</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10">
+        <v>0.84</v>
+      </c>
+      <c r="F10">
+        <v>1.98</v>
+      </c>
+      <c r="G10">
+        <v>0.64</v>
+      </c>
+      <c r="H10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1.14</v>
+      </c>
+      <c r="J10">
+        <v>0.21</v>
+      </c>
+      <c r="K10">
+        <v>1.98</v>
+      </c>
+      <c r="L10">
+        <v>0.84</v>
+      </c>
+      <c r="M10">
+        <v>0.525</v>
+      </c>
+      <c r="N10">
+        <v>0.525</v>
+      </c>
+      <c r="O10">
+        <v>0.5633333333333334</v>
+      </c>
+      <c r="P10">
+        <v>1.01</v>
+      </c>
+      <c r="Q10">
+        <v>1.01</v>
+      </c>
+      <c r="R10">
+        <v>1.2525</v>
+      </c>
+      <c r="S10">
+        <v>1.2525</v>
+      </c>
+      <c r="T10">
+        <v>0.9166666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9884187614602742</v>
+      </c>
+      <c r="D11">
+        <v>0.9966049724701519</v>
+      </c>
+      <c r="E11">
+        <v>0.9969555234280741</v>
+      </c>
+      <c r="F11">
+        <v>0.9884187614602742</v>
+      </c>
+      <c r="G11">
+        <v>0.9919241364401797</v>
+      </c>
+      <c r="H11">
+        <v>0.9998624821959811</v>
+      </c>
+      <c r="I11">
+        <v>0.994928375453311</v>
+      </c>
+      <c r="J11">
+        <v>0.9966049724701519</v>
+      </c>
+      <c r="K11">
+        <v>0.9884187614602742</v>
+      </c>
+      <c r="L11">
+        <v>0.9969555234280741</v>
+      </c>
+      <c r="M11">
+        <v>0.996780247949113</v>
+      </c>
+      <c r="N11">
+        <v>0.996780247949113</v>
+      </c>
+      <c r="O11">
+        <v>0.9951615441128019</v>
+      </c>
+      <c r="P11">
+        <v>0.9939930857861667</v>
+      </c>
+      <c r="Q11">
+        <v>0.9939930857861667</v>
+      </c>
+      <c r="R11">
+        <v>0.9925995047046936</v>
+      </c>
+      <c r="S11">
+        <v>0.9925995047046936</v>
+      </c>
+      <c r="T11">
+        <v>0.9947823752413286</v>
       </c>
     </row>
   </sheetData>
